--- a/영어 단어 정리.xlsx
+++ b/영어 단어 정리.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>feature</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -451,6 +451,22 @@
   </si>
   <si>
     <t>강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상쇄하다. // 컴퓨터 용어) 시작 지점?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수 // Not 수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -988,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="B39" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1446,6 +1462,22 @@
       </c>
       <c r="C49" s="1" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/영어 단어 정리.xlsx
+++ b/영어 단어 정리.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>feature</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -469,12 +469,27 @@
     <t>개수 // Not 수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>collision</t>
+  </si>
+  <si>
+    <t>(알고리즘 상에서의) 충돌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>append</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덧붙이다, 첨부하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -602,6 +617,12 @@
       <name val="Microsoft YaHei"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Gulim"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -650,7 +671,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -700,6 +721,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1004,25 +1028,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B39" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="19.69921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.3984375" customWidth="1"/>
     <col min="3" max="4" width="33.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="24.6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1037,7 +1061,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1046,7 +1070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1055,7 +1079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1066,7 +1090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="25.2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="25.2">
       <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
@@ -1075,7 +1099,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1084,7 +1108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1095,7 +1119,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1106,7 +1130,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1115,7 +1139,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1124,7 +1148,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1133,7 +1157,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1142,7 +1166,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1151,7 +1175,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1160,7 +1184,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1169,7 +1193,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
@@ -1178,7 +1202,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
         <v>42</v>
       </c>
@@ -1187,7 +1211,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
         <v>34</v>
       </c>
@@ -1196,7 +1220,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" ht="18" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>36</v>
       </c>
@@ -1205,7 +1229,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -1214,7 +1238,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
         <v>40</v>
       </c>
@@ -1223,7 +1247,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3">
       <c r="A23" s="6" t="s">
         <v>44</v>
       </c>
@@ -1232,7 +1256,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -1241,7 +1265,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -1250,7 +1274,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -1259,7 +1283,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3">
       <c r="A27" s="6" t="s">
         <v>52</v>
       </c>
@@ -1268,7 +1292,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3">
       <c r="A28" s="6" t="s">
         <v>54</v>
       </c>
@@ -1277,7 +1301,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -1286,7 +1310,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -1297,7 +1321,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>61</v>
       </c>
@@ -1306,7 +1330,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3">
       <c r="A32" s="7" t="s">
         <v>63</v>
       </c>
@@ -1315,7 +1339,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
@@ -1326,7 +1350,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3">
       <c r="A34" s="8" t="s">
         <v>68</v>
       </c>
@@ -1335,7 +1359,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3">
       <c r="A35" s="9" t="s">
         <v>70</v>
       </c>
@@ -1343,7 +1367,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3">
       <c r="A36" s="12" t="s">
         <v>73</v>
       </c>
@@ -1351,7 +1375,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3">
       <c r="A37" s="14" t="s">
         <v>75</v>
       </c>
@@ -1359,7 +1383,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -1367,7 +1391,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -1375,7 +1399,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -1386,7 +1410,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -1394,7 +1418,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>86</v>
       </c>
@@ -1405,7 +1429,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>89</v>
       </c>
@@ -1413,7 +1437,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -1421,7 +1445,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>93</v>
       </c>
@@ -1429,7 +1453,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>95</v>
       </c>
@@ -1437,7 +1461,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>97</v>
       </c>
@@ -1448,7 +1472,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>100</v>
       </c>
@@ -1456,7 +1480,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>102</v>
       </c>
@@ -1464,7 +1488,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>106</v>
       </c>
@@ -1472,12 +1496,28 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>108</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1496,7 +1536,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1509,7 +1549,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/영어 단어 정리.xlsx
+++ b/영어 단어 정리.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>feature</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -482,6 +482,22 @@
   </si>
   <si>
     <t>덧붙이다, 첨부하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1028,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1518,6 +1534,22 @@
       </c>
       <c r="C53" s="1" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/영어 단어 정리.xlsx
+++ b/영어 단어 정리.xlsx
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>feature</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -500,12 +501,33 @@
     <t>세로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>cascading</t>
+  </si>
+  <si>
+    <t>연속화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>article</t>
+  </si>
+  <si>
+    <t>글, 기사 / 조항 / 물품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>column</t>
+  </si>
+  <si>
+    <t>기둥, 세로단, 행렬의 '열'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -638,6 +660,25 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Gulim"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16.5"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
       <family val="3"/>
     </font>
   </fonts>
@@ -687,7 +728,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -740,6 +781,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1044,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="B47" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1550,6 +1600,30 @@
       </c>
       <c r="C55" s="1" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="21.6">
+      <c r="A57" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/영어 단어 정리.xlsx
+++ b/영어 단어 정리.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
   <si>
     <t>feature</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -520,6 +520,141 @@
   </si>
   <si>
     <t>기둥, 세로단, 행렬의 '열'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">primary </t>
+  </si>
+  <si>
+    <t>주된 중요한 기본적인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>constitute </t>
+  </si>
+  <si>
+    <t>~을 구성하다. ~가 되다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demystify</t>
+  </si>
+  <si>
+    <t>이해하기 쉽게 해준다. 분명히 설명해주다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>without</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸다 포장하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indent</t>
+  </si>
+  <si>
+    <t>들여 쓰기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dotted</t>
+  </si>
+  <si>
+    <t>점으로 뒤덮인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ellipsis</t>
+  </si>
+  <si>
+    <t>생략 (…) 부호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자르다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>property</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끼얹다 / 기울이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iteration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bezier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베지에(곡선)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perspective</t>
+  </si>
+  <si>
+    <t>명사 관점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query</t>
+  </si>
+  <si>
+    <t>문의, 의문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opacity</t>
+  </si>
+  <si>
+    <t>불투명함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -728,7 +863,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -790,6 +925,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1094,10 +1232,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B47" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1626,13 +1764,161 @@
         <v>123</v>
       </c>
     </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>152</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A32" r:id="rId1" display="https://endic.naver.com/enkrEntry.nhn?entryId=1806b0b5a36d48df9be63a5c3392fd5b&amp;query=Assumptions"/>
+    <hyperlink ref="A61" r:id="rId2" location="/entry/enko/807d162a20ce4bbf88eee7ac852e67cf" display="https://en.dict.naver.com/ - /entry/enko/807d162a20ce4bbf88eee7ac852e67cf"/>
+    <hyperlink ref="A65" r:id="rId3" location="/entry/enko/80cba8a465394faea0849f67e465bf88" display="https://en.dict.naver.com/ - /entry/enko/80cba8a465394faea0849f67e465bf88"/>
+    <hyperlink ref="A67" r:id="rId4" location="/entry/enko/6087fc23438b46539a7a7eb1560f68e4" display="https://en.dict.naver.com/ - /entry/enko/6087fc23438b46539a7a7eb1560f68e4"/>
+    <hyperlink ref="A76" r:id="rId5" location="/entry/enko/7da8cc7fc90642788a89eaf75ab4ad49" display="https://en.dict.naver.com/ - /entry/enko/7da8cc7fc90642788a89eaf75ab4ad49"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/영어 단어 정리.xlsx
+++ b/영어 단어 정리.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t>feature</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -655,6 +654,38 @@
   </si>
   <si>
     <t>불투명함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>split</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분할하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>splice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(밧줄 따위 등을) 잇다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옮기다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>native</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">~ 출신의 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1232,10 +1263,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1906,6 +1937,38 @@
       </c>
       <c r="C76" s="1" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>160</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>162</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>166</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/영어 단어 정리.xlsx
+++ b/영어 단어 정리.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t>feature</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -686,6 +686,14 @@
   </si>
   <si>
     <t xml:space="preserve">~ 출신의 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1263,10 +1271,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1969,6 +1977,14 @@
       </c>
       <c r="C80" s="1" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>168</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/영어 단어 정리.xlsx
+++ b/영어 단어 정리.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
   <si>
     <t>feature</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -694,6 +694,13 @@
   </si>
   <si>
     <t>열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EvenNumbers</t>
+  </si>
+  <si>
+    <t>짝수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1271,10 +1278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1985,6 +1992,14 @@
       </c>
       <c r="C81" s="1" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>170</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/영어 단어 정리.xlsx
+++ b/영어 단어 정리.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t>feature</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -701,6 +701,13 @@
   </si>
   <si>
     <t>짝수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audio</t>
+  </si>
+  <si>
+    <t>오디오</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1278,10 +1285,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="B81" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2000,6 +2007,14 @@
       </c>
       <c r="C82" s="1" t="s">
         <v>171</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>172</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
